--- a/Family_Health_Insurance_India.xlsx
+++ b/Family_Health_Insurance_India.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="140">
   <si>
     <t xml:space="preserve">Srno</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="item4"]/section/div[7]/div/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apmosys</t>
   </si>
   <si>
     <t xml:space="preserve">/html/body/div[2]/div/img</t>
@@ -850,7 +853,7 @@
   <dimension ref="A1:L817"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
+      <selection pane="topLeft" activeCell="G85" activeCellId="0" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3444,16 +3447,16 @@
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -3476,10 +3479,10 @@
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>23</v>
@@ -3508,12 +3511,12 @@
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -3670,7 +3673,7 @@
       <c r="D108" s="14"/>
       <c r="E108" s="15"/>
       <c r="G108" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -7414,16 +7417,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -7447,7 +7450,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>69</v>
@@ -7465,49 +7468,49 @@
         <v>86</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG1" s="10" t="s">
         <v>74</v>
@@ -7548,7 +7551,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H2" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -7558,7 +7561,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K2" s="26" t="n">
         <v>8856234121</v>
@@ -7570,64 +7573,64 @@
         <v>60</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P2" s="10" t="n">
         <v>50000</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S2" s="27" t="n">
         <v>52</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V2" s="10" t="n">
         <v>24</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X2" s="10" t="n">
         <v>54</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z2" s="10" t="n">
         <v>64</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF2" s="8" t="n">
         <v>60</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH2" s="10" t="n">
         <v>90</v>

--- a/Family_Health_Insurance_India.xlsx
+++ b/Family_Health_Insurance_India.xlsx
@@ -357,7 +357,7 @@
     <t xml:space="preserve">//*[@id="item4"]/section/div[7]/div/a</t>
   </si>
   <si>
-    <t xml:space="preserve">apmosys</t>
+    <t xml:space="preserve">technologies</t>
   </si>
   <si>
     <t xml:space="preserve">/html/body/div[2]/div/img</t>
@@ -853,7 +853,7 @@
   <dimension ref="A1:L817"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G85" activeCellId="0" sqref="G85"/>
+      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,7 +864,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="4.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.86"/>
@@ -3429,7 +3429,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="n">
         <v>75</v>
       </c>

--- a/Family_Health_Insurance_India.xlsx
+++ b/Family_Health_Insurance_India.xlsx
@@ -369,7 +369,7 @@
     <t xml:space="preserve">WAITUNTILINVISIBLE</t>
   </si>
   <si>
-    <t xml:space="preserve">sj</t>
+    <t xml:space="preserve">abcdef</t>
   </si>
   <si>
     <t xml:space="preserve">//*[text()="Pay through Credit / Debit Cards"]</t>

--- a/Family_Health_Insurance_India.xlsx
+++ b/Family_Health_Insurance_India.xlsx
@@ -375,7 +375,7 @@
     <t xml:space="preserve">//*[text()="Pay through Credit / Debit Cards"]</t>
   </si>
   <si>
-    <t xml:space="preserve">manali</t>
+    <t xml:space="preserve">MT..</t>
   </si>
   <si>
     <t xml:space="preserve">exit</t>
@@ -853,7 +853,7 @@
   <dimension ref="A1:L817"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
+      <selection pane="topLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Family_Health_Insurance_India.xlsx
+++ b/Family_Health_Insurance_India.xlsx
@@ -579,7 +579,7 @@
     <t>77</t>
   </si>
   <si>
-    <t>manali</t>
+    <t>MT..</t>
   </si>
   <si>
     <t>exit</t>

--- a/Family_Health_Insurance_India.xlsx
+++ b/Family_Health_Insurance_India.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="141">
   <si>
     <t xml:space="preserve">Srno</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">Payment Method Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stg</t>
   </si>
   <si>
     <t xml:space="preserve">//*[@id="item4"]/section/div[7]/div/a</t>
@@ -853,7 +856,7 @@
   <dimension ref="A1:L817"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
+      <selection pane="topLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3415,10 +3418,10 @@
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>35</v>
@@ -3447,16 +3450,16 @@
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -3479,10 +3482,10 @@
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>23</v>
@@ -3511,12 +3514,12 @@
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -3673,7 +3676,7 @@
       <c r="D108" s="14"/>
       <c r="E108" s="15"/>
       <c r="G108" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -7417,16 +7420,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -7450,7 +7453,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>69</v>
@@ -7468,49 +7471,49 @@
         <v>86</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG1" s="10" t="s">
         <v>74</v>
@@ -7551,7 +7554,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -7561,7 +7564,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K2" s="26" t="n">
         <v>8856234121</v>
@@ -7573,64 +7576,64 @@
         <v>60</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P2" s="10" t="n">
         <v>50000</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S2" s="27" t="n">
         <v>52</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V2" s="10" t="n">
         <v>24</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X2" s="10" t="n">
         <v>54</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z2" s="10" t="n">
         <v>64</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF2" s="8" t="n">
         <v>60</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH2" s="10" t="n">
         <v>90</v>

--- a/Family_Health_Insurance_India.xlsx
+++ b/Family_Health_Insurance_India.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="221">
   <si>
     <t>Srno</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>Payment Method Page</t>
+  </si>
+  <si>
+    <t>stg</t>
   </si>
   <si>
     <t>//*[@id="item4"]/section/div[7]/div/a</t>
@@ -4305,10 +4308,10 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="H85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I85" t="s">
         <v>43</v>
@@ -4325,7 +4328,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
@@ -4343,16 +4346,16 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
@@ -4363,7 +4366,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -4381,10 +4384,10 @@
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4401,7 +4404,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -4419,7 +4422,7 @@
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
@@ -4428,7 +4431,7 @@
         <v>17</v>
       </c>
       <c r="J88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K88" t="s">
         <v>17</v>
@@ -4452,16 +4455,16 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="13">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s" s="14">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s" s="15">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s" s="16">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s" s="17">
         <v>3</v>
@@ -4485,7 +4488,7 @@
         <v>50</v>
       </c>
       <c r="L2" t="s" s="24">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s" s="25">
         <v>110</v>
@@ -4503,49 +4506,49 @@
         <v>142</v>
       </c>
       <c r="R2" t="s" s="30">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S2" t="s" s="31">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T2" t="s" s="32">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U2" t="s" s="33">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V2" t="s" s="34">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W2" t="s" s="35">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X2" t="s" s="36">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y2" t="s" s="37">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z2" t="s" s="38">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA2" t="s" s="39">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB2" t="s" s="40">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC2" t="s" s="41">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD2" t="s" s="42">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AE2" t="s" s="43">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF2" t="s" s="44">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG2" t="s" s="45">
         <v>119</v>
@@ -4620,7 +4623,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -4629,79 +4632,79 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
         <v>148</v>
       </c>
       <c r="N3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S3" t="s">
         <v>135</v>
       </c>
       <c r="T3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V3" t="s">
         <v>79</v>
       </c>
       <c r="W3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X3" t="s">
         <v>137</v>
       </c>
       <c r="Y3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z3" t="s">
         <v>155</v>
       </c>
       <c r="AA3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AE3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF3" t="s">
         <v>148</v>
       </c>
       <c r="AG3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AH3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI3" t="s">
         <v>17</v>
